--- a/DataSet/Assignment1_Data_Analyst.xlsx
+++ b/DataSet/Assignment1_Data_Analyst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03ACBC-A086-4537-9503-8A4944FEF8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9923B3A-17DF-4B1C-8ACF-03F7D215485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2865" windowWidth="28800" windowHeight="15345" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,9 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
